--- a/a5-report4.xlsx
+++ b/a5-report4.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d7c41979ce3724f/Desktop/Skola/5th Year/Winter 2024/SENG 438/Assignment 5/C-SFRAT/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC104837811B76145BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F19671-F7C0-4654-9680-55A79B7059EF}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104837811B76145BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47D3B29-EE20-4259-8E2C-D742134C9E1A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,6 +94,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +366,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -377,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -385,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -393,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -401,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -409,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -417,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -425,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -433,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -441,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -449,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -457,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -465,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -473,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -481,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -489,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -505,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -513,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>175</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -521,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -529,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>182</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -537,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>189</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -545,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>192</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -553,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -561,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -569,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -577,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>197</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -585,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -593,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>201</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -601,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>209</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -609,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>210</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -617,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
